--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -88053,7 +88053,9 @@
       <c r="Q1564" t="n">
         <v>0</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -88333,7 +88333,9 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
@@ -88387,7 +88389,9 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1571">
       <c r="A1571" s="2" t="n">
@@ -88441,7 +88445,9 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
@@ -88495,7 +88501,9 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
@@ -88549,7 +88557,9 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1573"/>
+  <dimension ref="A1:R1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88561,6 +88561,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>4051</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>3970</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>4009.85009765625</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>4009.85009765625</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>1162482</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1574"/>
+  <dimension ref="A1:R1575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88101,7 +88101,7 @@
         <v>23</v>
       </c>
       <c r="O1565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1565" t="n">
         <v>0</v>
@@ -88613,7 +88613,63 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>4004.949951171875</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>4046.60009765625</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>3954.35009765625</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>3998.89990234375</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>3998.89990234375</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>218145</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1575"/>
+  <dimension ref="A1:R1582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88669,7 +88669,387 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>3998.89990234375</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>4044</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>3953</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>3997.449951171875</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>3997.449951171875</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>129320</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>4055</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>3951.25</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>3967.5</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>3967.5</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>108778</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>3979.89990234375</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>4132.64990234375</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>3942.10009765625</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>4108.89990234375</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>4108.89990234375</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>185089</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>4157.85009765625</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>4170</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>4011.39990234375</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>4051.550048828125</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>4051.550048828125</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>146064</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>4079</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>4298</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>4079</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>4262.75</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>4262.75</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>495903</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>4275</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>4425.35009765625</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>4217</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>4279.25</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>4279.25</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>329724</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>4298</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>4563.64990234375</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>4280</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>4521.75</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>4521.75</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>552875</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -88725,7 +88725,9 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1577">
       <c r="A1577" s="2" t="n">
@@ -88779,7 +88781,9 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
@@ -88833,7 +88837,9 @@
       <c r="Q1578" t="n">
         <v>0</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
@@ -88887,7 +88893,9 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
@@ -88941,7 +88949,9 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1581">
       <c r="A1581" s="2" t="n">
@@ -88995,7 +89005,9 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" s="2" t="n">
@@ -89049,7 +89061,9 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1582"/>
+  <dimension ref="A1:R1587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89065,6 +89065,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>4521.75</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>4555.25</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>4430</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>4488.39990234375</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>4488.39990234375</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>163338</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>4490</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>4521.10009765625</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>4443.0498046875</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>4496.75</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>4496.75</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>81822</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>4510</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>4665</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>4416.14990234375</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>4443.10009765625</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>4443.10009765625</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>193963</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>4460</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>4548.9501953125</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>4456.0498046875</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>4499.35009765625</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>4499.35009765625</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>65604</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>4495</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>4549</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>4482.2001953125</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>4503.7998046875</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>4503.7998046875</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>51095</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1587"/>
+  <dimension ref="A1:R1596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89117,7 +89117,9 @@
       <c r="Q1583" t="n">
         <v>0</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1584">
       <c r="A1584" s="2" t="n">
@@ -89171,7 +89173,9 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1585">
       <c r="A1585" s="2" t="n">
@@ -89225,7 +89229,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -89279,7 +89285,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -89333,7 +89341,495 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>4547</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>4547</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>4468</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>4498.35009765625</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>4498.35009765625</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>106426</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>4544</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>4888</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>4521.5</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>4567.9501953125</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>4567.9501953125</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>435441</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>4560.0498046875</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>4600</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>4470</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>4567.89990234375</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>4567.89990234375</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>143025</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>4565</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>4636.39990234375</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>4520.5498046875</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>4551.5</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>4551.5</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>70193</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>4580</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>4616.7998046875</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>4535.0498046875</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>4555.7998046875</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>4555.7998046875</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>54853</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>4602.89990234375</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>4743.5</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>4545.64990234375</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>4697.25</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>4697.25</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>224123</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>4693.0498046875</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>4706.7998046875</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>4550</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>4593.25</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>4593.25</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>109801</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>4578</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>4578</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>4307.2998046875</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>4428.64990234375</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>4428.64990234375</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>170961</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>4429.64990234375</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>4444.64990234375</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>4030.64990234375</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>4171.10009765625</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>4171.10009765625</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>184146</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1596"/>
+  <dimension ref="A1:R1606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89397,7 +89397,9 @@
       <c r="Q1588" t="n">
         <v>0</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
@@ -89443,7 +89445,7 @@
         <v>28</v>
       </c>
       <c r="O1589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1589" t="n">
         <v>0</v>
@@ -89451,7 +89453,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89505,7 +89509,9 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
@@ -89559,7 +89565,9 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" s="2" t="n">
@@ -89613,7 +89621,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89667,7 +89677,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89721,7 +89733,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89775,7 +89789,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89821,7 +89837,7 @@
         <v>29</v>
       </c>
       <c r="O1596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1596" t="n">
         <v>0</v>
@@ -89829,7 +89845,549 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>4130.39990234375</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>4330</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>4090</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>4279.7001953125</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>4279.7001953125</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>140287</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>4275</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>4288.35009765625</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>4057.25</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>4205.5</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>4205.5</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>109152</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>4205.5</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>4350</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>4205.4501953125</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>4311.9501953125</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>4311.9501953125</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>84321</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>4312</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>4420</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>4273.7998046875</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>4384.5498046875</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>4384.5498046875</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>122306</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>4430</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>4524</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>4353</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>4380.39990234375</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>4380.39990234375</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>318945</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>4490</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>4529</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>4357.75</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>4386.9501953125</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>4386.9501953125</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>192009</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>4406</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>4446.89990234375</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>4333</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>4347.5</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>4347.5</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>61749</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>4373.9501953125</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>4385.35009765625</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>4325</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>4334.5</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>4334.5</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>54595</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>4335</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>4361.89990234375</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>4240</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>4261.14990234375</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>4261.14990234375</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>42976</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>4209.0498046875</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>4615</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>4205.10009765625</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>4389.5</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>4389.5</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>699102</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1606"/>
+  <dimension ref="A1:R1611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89901,7 +89901,9 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89955,7 +89957,9 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -90009,7 +90013,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -90063,7 +90069,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -90117,7 +90125,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -90171,7 +90181,9 @@
       <c r="Q1602" t="n">
         <v>0</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -90225,7 +90237,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90279,7 +90293,9 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1605">
       <c r="A1605" s="2" t="n">
@@ -90333,7 +90349,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -90387,7 +90405,279 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>4250</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>4279.0498046875</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>4120</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>4249.60009765625</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>4249.60009765625</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>209317</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>4306</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>4391.9501953125</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>4170</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>4215.25</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>4215.25</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>89239</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>4220</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>4325</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>4206</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>4285.7998046875</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>4285.7998046875</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>64539</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>4248</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>4371.9501953125</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>4248</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>4342.60009765625</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>4342.60009765625</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>51699</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>4374.9501953125</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>4399</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>4276.0498046875</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>4314.9501953125</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>4314.9501953125</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>61235</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1611"/>
+  <dimension ref="A1:R1615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90461,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90515,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90569,7 +90573,9 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
@@ -90623,7 +90629,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90677,7 +90685,225 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>4227</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>4142</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>4158.7998046875</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>4158.7998046875</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>101358</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>4188</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>4045.050048828125</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>4074.050048828125</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>4074.050048828125</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>63461</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>4050</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>4119.9501953125</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>3964</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>4086.75</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>4086.75</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>118241</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>4117</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>4152.4501953125</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>4055</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>4143.5</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>4143.5</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>133726</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1615"/>
+  <dimension ref="A1:R1620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90397,7 +90397,7 @@
         <v>31</v>
       </c>
       <c r="O1606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1606" t="n">
         <v>0</v>
@@ -90741,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90795,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90849,7 +90853,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90903,7 +90909,279 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>4144</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>4215</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>4097.7001953125</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>4189.9501953125</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>4189.9501953125</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>171107</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>4239.39990234375</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>4256.7998046875</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>4089.050048828125</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>4240.5498046875</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>4240.5498046875</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>173382</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>4241</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>4254.2998046875</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>4159</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>4179.7998046875</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>4179.7998046875</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>199274</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>4212.5</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>4220.5498046875</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>4146.60009765625</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>4199.85009765625</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>4199.85009765625</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>99269</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>4203</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>4158.4501953125</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>4195.85009765625</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>4195.85009765625</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>93079</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1620"/>
+  <dimension ref="A1:R1625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90845,7 +90845,7 @@
         <v>33</v>
       </c>
       <c r="O1614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1614" t="n">
         <v>0</v>
@@ -90965,7 +90965,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -91019,7 +91021,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -91073,7 +91077,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -91127,7 +91133,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91181,7 +91189,279 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>4220</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>4280</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>4190.35009765625</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>4242.10009765625</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>4242.10009765625</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>67878</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>4240</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>4348.9501953125</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>4203</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>4303.2998046875</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>4303.2998046875</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>173947</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>4310.5</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>4390</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>4310.5</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>4379.39990234375</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>4379.39990234375</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>96127</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>4401</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>4592.7001953125</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>4384.89990234375</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>4556.7998046875</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>4556.7998046875</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>538395</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>4597</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>4614.89990234375</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>4450.10009765625</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>4467.2998046875</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>4467.2998046875</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>113648</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1625"/>
+  <dimension ref="A1:R1630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91245,7 +91245,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91299,7 +91301,9 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91353,7 +91357,9 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -91407,7 +91413,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91461,7 +91469,279 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>4520</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>4418.0498046875</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>4465.85009765625</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>4465.85009765625</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>64451</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>4469</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>4440.10009765625</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>4455.14990234375</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>4455.14990234375</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>53204</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>4443.5498046875</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>4520</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>4399.64990234375</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>4510.85009765625</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>4510.85009765625</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>47908</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>4526.25</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>4719.89990234375</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>4513.9501953125</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>4690.60009765625</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>4690.60009765625</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>298641</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>4670.0498046875</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>4727</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>4480</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>4514.39990234375</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>4514.39990234375</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>119803</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1630"/>
+  <dimension ref="A1:R1635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91525,7 +91525,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91579,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91633,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91687,7 +91693,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91741,7 +91749,279 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>4490</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>4543.2998046875</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>4378.0498046875</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>4532.0498046875</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>4532.0498046875</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>91808</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>4517.4501953125</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>4441</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>4465.25</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>4465.25</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>59121</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>4400</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>4448.7001953125</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>4384.5</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>4420.4501953125</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>4420.4501953125</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>47573</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>4446.9501953125</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>4525.35009765625</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>4410.60009765625</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>4501.7001953125</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>4501.7001953125</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>64417</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>4590</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>4662.10009765625</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>4534.75</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>4645.2001953125</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>4645.2001953125</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>160679</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1635"/>
+  <dimension ref="A1:R1640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91741,7 +91741,7 @@
         <v>36</v>
       </c>
       <c r="O1630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1630" t="n">
         <v>0</v>
@@ -91805,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91859,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
@@ -91913,7 +91917,9 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
@@ -91967,7 +91973,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -92021,7 +92029,279 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>4654</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>4654</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>4510</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>4558.75</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>4558.75</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>73939</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>4575</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>4481</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>4507.5498046875</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>4507.5498046875</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>44864</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>4544.5498046875</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>4544.5498046875</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>4435</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>4458.35009765625</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>4458.35009765625</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>31680</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>4490</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>4490</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>4266.10009765625</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>4390</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>4390</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>104348</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>4389.9501953125</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>4400</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>4320.0498046875</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>4347.5498046875</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>4347.5498046875</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>51726</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1640"/>
+  <dimension ref="A1:R1645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92085,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92139,7 +92141,9 @@
       <c r="Q1637" t="n">
         <v>0</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92193,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92247,7 +92253,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92301,7 +92309,279 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>4420</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>5187.9501953125</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>4382.35009765625</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>4994.64990234375</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>4994.64990234375</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>3005187</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>4970</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>5361.14990234375</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>4680</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>4723.0498046875</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>4723.0498046875</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>3055636</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>4775</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>4911.9501953125</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>4635</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>4806.5</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>4806.5</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>1189676</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>4850</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>4866.14990234375</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>4630.14990234375</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>4667.85009765625</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>4667.85009765625</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>350885</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>4693.0498046875</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>4746.5498046875</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>4536.0498046875</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>4658.75</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>4658.75</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>395723</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1645"/>
+  <dimension ref="A1:R1649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92245,7 +92245,7 @@
         <v>38</v>
       </c>
       <c r="O1639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1639" t="n">
         <v>0</v>
@@ -92365,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92419,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92473,7 +92477,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92527,7 +92533,9 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -92581,7 +92589,225 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>4632.0498046875</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>4848.5498046875</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>4580</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>4809.10009765625</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>4809.10009765625</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>368403</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>4800</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>4910</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>4742.39990234375</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>4845.7001953125</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>4845.7001953125</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>267172</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>4810</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>5235</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>4703.7998046875</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>5163.85009765625</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>5163.85009765625</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>1698043</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>5159.9501953125</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>5159.9501953125</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>4890</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>4918.89990234375</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>4918.89990234375</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>376864</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1649"/>
+  <dimension ref="A1:R1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92413,7 +92413,7 @@
         <v>39</v>
       </c>
       <c r="O1642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1642" t="n">
         <v>0</v>
@@ -92645,7 +92645,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92699,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92753,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92807,7 +92813,279 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>4921.2001953125</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>5051</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>4931.2998046875</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>4931.2998046875</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>344865</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>4940</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>5140</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>4920.14990234375</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>5064.7998046875</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>5064.7998046875</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>444498</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>5095</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>5189</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>5050</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>5154.0498046875</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>5154.0498046875</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>269085</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>5209.85009765625</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>5223.25</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>5087.85009765625</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>5117.10009765625</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>5117.10009765625</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>192192</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>5122.5</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>5122.5</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>5005</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>5019.85009765625</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>5019.85009765625</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>104327</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1654"/>
+  <dimension ref="A1:R1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92869,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>1</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92923,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92977,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93031,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93085,7 +93093,279 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>5048.89990234375</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>5298</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>5035</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>5145.39990234375</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>5145.39990234375</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>774480</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>5168.35009765625</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>5222.9501953125</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>5052.0498046875</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>5166.7998046875</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>5166.7998046875</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>187088</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>5190.9501953125</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>5665.9501953125</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>5163.89990234375</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>5491.64990234375</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>5491.64990234375</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>1596995</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>5480.10009765625</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>5567</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>5367.9501953125</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>5482.7998046875</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>5482.7998046875</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>497367</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>5450.0498046875</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>5512.2998046875</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>5345</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>5403.5498046875</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>5403.5498046875</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>256453</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1659"/>
+  <dimension ref="A1:R1664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93149,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93203,7 +93205,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93257,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93311,7 +93317,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93365,7 +93373,279 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>5420.10009765625</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>6484.25</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>5420.10009765625</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>6344.4501953125</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>6344.4501953125</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>4610496</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>6430</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>6430</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>5493.10009765625</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>5692.4501953125</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>5692.4501953125</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>2606090</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>5772.2001953125</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>6788.2998046875</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>5763</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>6408.0498046875</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>6408.0498046875</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>3362041</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>6276.7998046875</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>7159</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>6148.0498046875</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>6255.2001953125</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>6255.2001953125</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>5659630</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>6401</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>6550</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>5910</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>6171.2001953125</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>6171.2001953125</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>2317892</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1664"/>
+  <dimension ref="A1:R1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93429,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93483,7 +93485,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93537,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93591,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93645,7 +93653,279 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>6229.39990234375</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>6368.60009765625</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>6033.7001953125</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>6235.64990234375</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>6235.64990234375</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>1139748</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>6200.14990234375</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>6338.39990234375</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>6155.64990234375</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>6280.5498046875</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>6280.5498046875</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>674583</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>6279</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>6279</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>5950</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>6050.64990234375</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>6050.64990234375</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>779342</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>6041</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>6055.9501953125</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>5950</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>6040.25</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>6040.25</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>406218</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>6045.25</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>6293.60009765625</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>6045.25</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>6099</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>6099</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>150333</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1669"/>
+  <dimension ref="A1:R1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93589,7 +93589,7 @@
         <v>43</v>
       </c>
       <c r="O1663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1663" t="n">
         <v>0</v>
@@ -93709,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93763,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93817,7 +93821,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93871,7 +93877,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93925,7 +93933,279 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>6130.0498046875</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>6340</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>5950</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>5990.64990234375</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>5990.64990234375</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>572988</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>6009.9501953125</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>6195.25</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>5992.0498046875</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>6063.10009765625</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>6063.10009765625</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>535685</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>6143.7001953125</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>6297</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>6034.10009765625</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>6228.7001953125</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>6228.7001953125</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>762450</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>6272.75</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>6333</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>6163.75</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>6222.10009765625</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>6222.10009765625</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>536559</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>6225</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>6264</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>6069.5</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>6154.0498046875</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>6154.0498046875</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>297149</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1674"/>
+  <dimension ref="A1:R1678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93989,7 +93989,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94043,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94097,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94151,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94205,7 +94213,225 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>6125</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>6150</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>6047.75</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>6047.75</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>212267</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>6092.7998046875</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>6289.7998046875</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>6072.14990234375</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>6135.35009765625</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>6135.35009765625</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>358393</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>6135.35009765625</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>6175</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>5962.25</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>6086.9501953125</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>6086.9501953125</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>301560</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>6125</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>6185.0498046875</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>6055.14990234375</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>6119.5498046875</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>6119.5498046875</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>171704</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1678"/>
+  <dimension ref="A1:R1682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94269,7 +94269,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94323,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94377,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94431,7 +94437,225 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>6119</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>6378.89990234375</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>6090.0498046875</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>6209</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>6209</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>362967</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>6219.89990234375</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>6425</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>6131</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>6168.9501953125</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>6168.9501953125</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>452758</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>6221.9501953125</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>6679.5</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>6199.2001953125</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>6542.60009765625</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>6542.60009765625</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>1996325</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>6548</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>6570.85009765625</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>6315.0498046875</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>6483.10009765625</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>6483.10009765625</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>518092</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1682"/>
+  <dimension ref="A1:R1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94261,7 +94261,7 @@
         <v>46</v>
       </c>
       <c r="O1675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1675" t="n">
         <v>0</v>
@@ -94493,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94547,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94601,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94655,7 +94661,279 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>6625</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>6786.39990234375</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>6466</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>6534.9501953125</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>6534.9501953125</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>662302</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>6554.9501953125</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>6599.39990234375</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>6407.4501953125</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>6445.5</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>6445.5</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>265129</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>6495.5</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>6535</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>6430.0498046875</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>6477.2998046875</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>6477.2998046875</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>148185</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>6410.0498046875</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>6460.2998046875</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>5961.25</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>5992.25</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>5992.25</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>923520</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>6020</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>6096</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>5960</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>6064.9501953125</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>6064.9501953125</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>435577</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1687"/>
+  <dimension ref="A1:R1692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94717,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94771,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94825,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94879,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>1</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94933,7 +94941,279 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>6266.2001953125</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>6022.25</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>6051.0498046875</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>6051.0498046875</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>455594</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>6130</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>6137.7001953125</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>5990.5498046875</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>6017.7001953125</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>6017.7001953125</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>275699</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>6065.39990234375</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>6065.39990234375</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>5981.5498046875</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>6013.75</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>6013.75</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>166310</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>6047.64990234375</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>6047.7001953125</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>5783.5</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>5819.39990234375</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>5819.39990234375</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>407095</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>5868.10009765625</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>5898.5</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>5779</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>5806.4501953125</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>5806.4501953125</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>422368</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1692"/>
+  <dimension ref="A1:R1702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94709,7 +94709,7 @@
         <v>48</v>
       </c>
       <c r="O1683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1683" t="n">
         <v>0</v>
@@ -94997,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95051,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95105,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95159,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95213,7 +95221,529 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>5807.5</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>5840</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>5750.5498046875</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>5793.4501953125</v>
+      </c>
+      <c r="F1693" t="inlineStr"/>
+      <c r="G1693" t="n">
+        <v>233967</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>5804.2998046875</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>5824.25</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>5702.10009765625</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>5723.89990234375</v>
+      </c>
+      <c r="F1694" t="inlineStr"/>
+      <c r="G1694" t="n">
+        <v>316932</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>5748</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>5804</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>5715</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>5793.14990234375</v>
+      </c>
+      <c r="F1695" t="inlineStr"/>
+      <c r="G1695" t="n">
+        <v>169034</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>5821.5</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>5821.5</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>5715</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>5737.4501953125</v>
+      </c>
+      <c r="F1696" t="inlineStr"/>
+      <c r="G1696" t="n">
+        <v>173299</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>5737.4501953125</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>5809.75</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>5647.39990234375</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>5787.35009765625</v>
+      </c>
+      <c r="F1697" t="inlineStr"/>
+      <c r="G1697" t="n">
+        <v>275999</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>5790</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>6106</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>5780</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>5991.5</v>
+      </c>
+      <c r="F1698" t="inlineStr"/>
+      <c r="G1698" t="n">
+        <v>631616</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>6080</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>6143.9501953125</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>5967.25</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>6005.64990234375</v>
+      </c>
+      <c r="F1699" t="inlineStr"/>
+      <c r="G1699" t="n">
+        <v>387360</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>6005</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>6035</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>5927</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>5999.60009765625</v>
+      </c>
+      <c r="F1700" t="inlineStr"/>
+      <c r="G1700" t="n">
+        <v>235087</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>5903.35009765625</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>6189</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>5875</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>6093.39990234375</v>
+      </c>
+      <c r="F1701" t="inlineStr"/>
+      <c r="G1701" t="n">
+        <v>555348</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>6211.4501953125</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>6089</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>6122.89990234375</v>
+      </c>
+      <c r="F1702" t="inlineStr"/>
+      <c r="G1702" t="n">
+        <v>475666</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1702"/>
+  <dimension ref="A1:R1706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95275,7 +95275,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95327,7 +95329,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95379,7 +95383,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95431,7 +95437,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95483,7 +95491,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95535,7 +95545,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95587,7 +95599,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95639,7 +95653,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95691,7 +95707,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95743,7 +95761,217 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>6185</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>6994.39990234375</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>6102.75</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>6907.7998046875</v>
+      </c>
+      <c r="F1703" t="inlineStr"/>
+      <c r="G1703" t="n">
+        <v>3246014</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>6829.75</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>7498.7001953125</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>6775.9501953125</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>7249.89990234375</v>
+      </c>
+      <c r="F1704" t="inlineStr"/>
+      <c r="G1704" t="n">
+        <v>5193517</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>7249.89990234375</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>7977</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>7192</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>7867.7001953125</v>
+      </c>
+      <c r="F1705" t="inlineStr"/>
+      <c r="G1705" t="n">
+        <v>3615197</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>7780</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>7818.75</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>7383</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>7442.9501953125</v>
+      </c>
+      <c r="F1706" t="inlineStr"/>
+      <c r="G1706" t="n">
+        <v>1814796</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1706"/>
+  <dimension ref="A1:R1711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95483,7 +95483,7 @@
         <v>50</v>
       </c>
       <c r="O1697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1697" t="n">
         <v>0</v>
@@ -95815,7 +95815,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95867,7 +95869,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95919,7 +95923,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95971,7 +95977,269 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>7404.5498046875</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>7523</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>7120.89990234375</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>7335.5498046875</v>
+      </c>
+      <c r="F1707" t="inlineStr"/>
+      <c r="G1707" t="n">
+        <v>830472</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>7372.7001953125</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>7449</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>7223.2001953125</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>7387.5498046875</v>
+      </c>
+      <c r="F1708" t="inlineStr"/>
+      <c r="G1708" t="n">
+        <v>336385</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>7402.5498046875</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>7917.4501953125</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>7353</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>7671.7001953125</v>
+      </c>
+      <c r="F1709" t="inlineStr"/>
+      <c r="G1709" t="n">
+        <v>1008620</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>7640</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>7719.7001953125</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>7470.4501953125</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>7544.39990234375</v>
+      </c>
+      <c r="F1710" t="inlineStr"/>
+      <c r="G1710" t="n">
+        <v>256061</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>7700</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>7900</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>7585.5498046875</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>7745.2001953125</v>
+      </c>
+      <c r="F1711" t="inlineStr"/>
+      <c r="G1711" t="n">
+        <v>753198</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1711"/>
+  <dimension ref="A1:R1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4555,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" t="n">
         <v>1</v>
@@ -96031,7 +96031,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96083,7 +96085,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96135,7 +96139,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96187,7 +96193,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96239,7 +96247,269 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>7749</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>7836</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>7550</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>7664.7998046875</v>
+      </c>
+      <c r="F1712" t="inlineStr"/>
+      <c r="G1712" t="n">
+        <v>413393</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>7648.7998046875</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>8177</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>7614.5498046875</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>8060.39990234375</v>
+      </c>
+      <c r="F1713" t="inlineStr"/>
+      <c r="G1713" t="n">
+        <v>1550475</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>8087.9501953125</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>8160</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>7616</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>7791.0498046875</v>
+      </c>
+      <c r="F1714" t="inlineStr"/>
+      <c r="G1714" t="n">
+        <v>827603</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>7819.89990234375</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>7921</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>7461</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>7703.9501953125</v>
+      </c>
+      <c r="F1715" t="inlineStr"/>
+      <c r="G1715" t="n">
+        <v>698590</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>7750</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>8098.7001953125</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>7703.0498046875</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>7831.14990234375</v>
+      </c>
+      <c r="F1716" t="inlineStr"/>
+      <c r="G1716" t="n">
+        <v>1051800</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4835,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
         <v>2</v>
@@ -96301,7 +96301,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96353,7 +96355,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96405,7 +96409,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96457,7 +96463,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96509,7 +96517,269 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>7759.7001953125</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>7807.4501953125</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>6970.89990234375</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>7078.5</v>
+      </c>
+      <c r="F1717" t="inlineStr"/>
+      <c r="G1717" t="n">
+        <v>858194</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>7184</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>7292</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>6869</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>6898</v>
+      </c>
+      <c r="F1718" t="inlineStr"/>
+      <c r="G1718" t="n">
+        <v>513511</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>6901</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>7118</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>6760</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>7033.7998046875</v>
+      </c>
+      <c r="F1719" t="inlineStr"/>
+      <c r="G1719" t="n">
+        <v>690894</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>7100</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>7142.9501953125</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>6780</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>6815.85009765625</v>
+      </c>
+      <c r="F1720" t="inlineStr"/>
+      <c r="G1720" t="n">
+        <v>398087</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>6830.89990234375</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>6974</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>6730.85009765625</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>6757.5</v>
+      </c>
+      <c r="F1721" t="inlineStr"/>
+      <c r="G1721" t="n">
+        <v>344340</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1721"/>
+  <dimension ref="A1:R1726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96347,7 +96347,7 @@
         <v>2</v>
       </c>
       <c r="O1713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1713" t="n">
         <v>0</v>
@@ -96571,7 +96571,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96623,7 +96625,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96675,7 +96679,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96727,7 +96733,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96779,7 +96787,269 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>6757.5</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>7088</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>6675</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>7049.5498046875</v>
+      </c>
+      <c r="F1722" t="inlineStr"/>
+      <c r="G1722" t="n">
+        <v>662008</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>7084</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>7084</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>6475</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>6515.0498046875</v>
+      </c>
+      <c r="F1723" t="inlineStr"/>
+      <c r="G1723" t="n">
+        <v>656441</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>6552.7001953125</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>6577.0498046875</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>6202.35009765625</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>6283.14990234375</v>
+      </c>
+      <c r="F1724" t="inlineStr"/>
+      <c r="G1724" t="n">
+        <v>567459</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>6314.5498046875</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>7044.9501953125</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>6297.35009765625</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>6767.60009765625</v>
+      </c>
+      <c r="F1725" t="inlineStr"/>
+      <c r="G1725" t="n">
+        <v>1449087</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>7200</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>7248</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>6840.7998046875</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>6973.7998046875</v>
+      </c>
+      <c r="F1726" t="inlineStr"/>
+      <c r="G1726" t="n">
+        <v>1829038</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1726"/>
+  <dimension ref="A1:R1731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96841,7 +96841,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96893,7 +96895,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -96945,7 +96949,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -96997,7 +97003,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97049,7 +97057,269 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>6925.75</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>6999.0498046875</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>6565.14990234375</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>6631.7998046875</v>
+      </c>
+      <c r="F1727" t="inlineStr"/>
+      <c r="G1727" t="n">
+        <v>747322</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>6640.10009765625</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>6826.2998046875</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>6075</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>6673.5</v>
+      </c>
+      <c r="F1728" t="inlineStr"/>
+      <c r="G1728" t="n">
+        <v>1461346</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>6673.5</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>7119.64990234375</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>6512.2998046875</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>6585.35009765625</v>
+      </c>
+      <c r="F1729" t="inlineStr"/>
+      <c r="G1729" t="n">
+        <v>1226641</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>6655</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>6698.85009765625</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>6300.0498046875</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>6326</v>
+      </c>
+      <c r="F1730" t="inlineStr"/>
+      <c r="G1730" t="n">
+        <v>572176</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>6399.9501953125</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>6549.89990234375</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>6332.7001953125</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>6501.7998046875</v>
+      </c>
+      <c r="F1731" t="inlineStr"/>
+      <c r="G1731" t="n">
+        <v>576538</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1731"/>
+  <dimension ref="A1:R1736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97111,7 +97111,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97163,7 +97165,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97215,7 +97219,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97267,7 +97273,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97319,7 +97327,269 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>6500</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>6875.64990234375</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>6460</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>6528.39990234375</v>
+      </c>
+      <c r="F1732" t="inlineStr"/>
+      <c r="G1732" t="n">
+        <v>796800</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>6599</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>6975</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>6556</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>6918.75</v>
+      </c>
+      <c r="F1733" t="inlineStr"/>
+      <c r="G1733" t="n">
+        <v>729485</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>6980</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>7298.7998046875</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>6809.89990234375</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>6908.7998046875</v>
+      </c>
+      <c r="F1734" t="inlineStr"/>
+      <c r="G1734" t="n">
+        <v>1631936</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>7017.9501953125</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>6846</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>6954.0498046875</v>
+      </c>
+      <c r="F1735" t="inlineStr"/>
+      <c r="G1735" t="n">
+        <v>370571</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>6966.9501953125</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>7041.5498046875</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>6830.0498046875</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>6894.0498046875</v>
+      </c>
+      <c r="F1736" t="inlineStr"/>
+      <c r="G1736" t="n">
+        <v>290653</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1736"/>
+  <dimension ref="A1:R1741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97157,7 +97157,7 @@
         <v>5</v>
       </c>
       <c r="O1728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1728" t="n">
         <v>0</v>
@@ -97381,7 +97381,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97433,7 +97435,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97485,7 +97489,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97537,7 +97543,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97589,7 +97597,269 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>6891</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>6960.60009765625</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>6732.64990234375</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>6928.89990234375</v>
+      </c>
+      <c r="F1737" t="inlineStr"/>
+      <c r="G1737" t="n">
+        <v>280946</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>6901</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>6957.7998046875</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>6384.5</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>6433.10009765625</v>
+      </c>
+      <c r="F1738" t="inlineStr"/>
+      <c r="G1738" t="n">
+        <v>517009</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>6426</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>6430</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>5934.0498046875</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>5982.39990234375</v>
+      </c>
+      <c r="F1739" t="inlineStr"/>
+      <c r="G1739" t="n">
+        <v>921811</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>5950</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>6247.89990234375</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>5875.0498046875</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>6143.7001953125</v>
+      </c>
+      <c r="F1740" t="inlineStr"/>
+      <c r="G1740" t="n">
+        <v>746807</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>6140</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>6212.25</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>5762.35009765625</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>5817.2998046875</v>
+      </c>
+      <c r="F1741" t="inlineStr"/>
+      <c r="G1741" t="n">
+        <v>542277</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1741"/>
+  <dimension ref="A1:R1746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97481,7 +97481,7 @@
         <v>6</v>
       </c>
       <c r="O1734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1734" t="n">
         <v>0</v>
@@ -97651,7 +97651,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97703,7 +97705,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97755,7 +97759,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97807,7 +97813,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97859,7 +97867,269 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>5798</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>5924.0498046875</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>5630.0498046875</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>5779.85009765625</v>
+      </c>
+      <c r="F1742" t="inlineStr"/>
+      <c r="G1742" t="n">
+        <v>905638</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>5795</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>5844.39990234375</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>5235</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>5514.25</v>
+      </c>
+      <c r="F1743" t="inlineStr"/>
+      <c r="G1743" t="n">
+        <v>1257883</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>5633.75</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>5351</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>5517.89990234375</v>
+      </c>
+      <c r="F1744" t="inlineStr"/>
+      <c r="G1744" t="n">
+        <v>690606</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>5537.39990234375</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>5433.0498046875</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>5837</v>
+      </c>
+      <c r="F1745" t="inlineStr"/>
+      <c r="G1745" t="n">
+        <v>817813</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>5801</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>6119.9501953125</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>5740.2001953125</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>6001.2001953125</v>
+      </c>
+      <c r="F1746" t="inlineStr"/>
+      <c r="G1746" t="n">
+        <v>1157557</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1746"/>
+  <dimension ref="A1:R1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97333,23 +97333,23 @@
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1732" t="n">
-        <v>6500</v>
+        <v>6538</v>
       </c>
       <c r="C1732" t="n">
-        <v>6875.64990234375</v>
+        <v>6674</v>
       </c>
       <c r="D1732" t="n">
-        <v>6460</v>
+        <v>6445.7001953125</v>
       </c>
       <c r="E1732" t="n">
-        <v>6528.39990234375</v>
+        <v>6617.10009765625</v>
       </c>
       <c r="F1732" t="inlineStr"/>
       <c r="G1732" t="n">
-        <v>796800</v>
+        <v>383194</v>
       </c>
       <c r="H1732" t="n">
         <v>2025</v>
@@ -97358,7 +97358,7 @@
         <v>2</v>
       </c>
       <c r="J1732" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1732" t="n">
         <v>0</v>
@@ -97370,7 +97370,7 @@
         <v>0</v>
       </c>
       <c r="N1732" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1732" t="n">
         <v>0</v>
@@ -97381,29 +97381,27 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1732" t="inlineStr"/>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1733" t="n">
-        <v>6599</v>
+        <v>6500</v>
       </c>
       <c r="C1733" t="n">
-        <v>6975</v>
+        <v>6875.64990234375</v>
       </c>
       <c r="D1733" t="n">
-        <v>6556</v>
+        <v>6460</v>
       </c>
       <c r="E1733" t="n">
-        <v>6918.75</v>
+        <v>6528.39990234375</v>
       </c>
       <c r="F1733" t="inlineStr"/>
       <c r="G1733" t="n">
-        <v>729485</v>
+        <v>796800</v>
       </c>
       <c r="H1733" t="n">
         <v>2025</v>
@@ -97412,7 +97410,7 @@
         <v>2</v>
       </c>
       <c r="J1733" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1733" t="n">
         <v>0</v>
@@ -97441,23 +97439,23 @@
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1734" t="n">
-        <v>6980</v>
+        <v>6599</v>
       </c>
       <c r="C1734" t="n">
-        <v>7298.7998046875</v>
+        <v>6975</v>
       </c>
       <c r="D1734" t="n">
-        <v>6809.89990234375</v>
+        <v>6556</v>
       </c>
       <c r="E1734" t="n">
-        <v>6908.7998046875</v>
+        <v>6918.75</v>
       </c>
       <c r="F1734" t="inlineStr"/>
       <c r="G1734" t="n">
-        <v>1631936</v>
+        <v>729485</v>
       </c>
       <c r="H1734" t="n">
         <v>2025</v>
@@ -97466,7 +97464,7 @@
         <v>2</v>
       </c>
       <c r="J1734" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1734" t="n">
         <v>0</v>
@@ -97481,7 +97479,7 @@
         <v>6</v>
       </c>
       <c r="O1734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1734" t="n">
         <v>0</v>
@@ -97495,23 +97493,23 @@
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1735" t="n">
-        <v>7000</v>
+        <v>6980</v>
       </c>
       <c r="C1735" t="n">
-        <v>7017.9501953125</v>
+        <v>7298.7998046875</v>
       </c>
       <c r="D1735" t="n">
-        <v>6846</v>
+        <v>6809.89990234375</v>
       </c>
       <c r="E1735" t="n">
-        <v>6954.0498046875</v>
+        <v>6908.7998046875</v>
       </c>
       <c r="F1735" t="inlineStr"/>
       <c r="G1735" t="n">
-        <v>370571</v>
+        <v>1631936</v>
       </c>
       <c r="H1735" t="n">
         <v>2025</v>
@@ -97520,7 +97518,7 @@
         <v>2</v>
       </c>
       <c r="J1735" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1735" t="n">
         <v>0</v>
@@ -97535,7 +97533,7 @@
         <v>6</v>
       </c>
       <c r="O1735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1735" t="n">
         <v>0</v>
@@ -97549,23 +97547,23 @@
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1736" t="n">
-        <v>6966.9501953125</v>
+        <v>7000</v>
       </c>
       <c r="C1736" t="n">
-        <v>7041.5498046875</v>
+        <v>7017.9501953125</v>
       </c>
       <c r="D1736" t="n">
-        <v>6830.0498046875</v>
+        <v>6846</v>
       </c>
       <c r="E1736" t="n">
-        <v>6894.0498046875</v>
+        <v>6954.0498046875</v>
       </c>
       <c r="F1736" t="inlineStr"/>
       <c r="G1736" t="n">
-        <v>290653</v>
+        <v>370571</v>
       </c>
       <c r="H1736" t="n">
         <v>2025</v>
@@ -97574,7 +97572,7 @@
         <v>2</v>
       </c>
       <c r="J1736" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1736" t="n">
         <v>0</v>
@@ -97603,23 +97601,23 @@
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1737" t="n">
-        <v>6891</v>
+        <v>6966.9501953125</v>
       </c>
       <c r="C1737" t="n">
-        <v>6960.60009765625</v>
+        <v>7041.5498046875</v>
       </c>
       <c r="D1737" t="n">
-        <v>6732.64990234375</v>
+        <v>6830.0498046875</v>
       </c>
       <c r="E1737" t="n">
-        <v>6928.89990234375</v>
+        <v>6894.0498046875</v>
       </c>
       <c r="F1737" t="inlineStr"/>
       <c r="G1737" t="n">
-        <v>280946</v>
+        <v>290653</v>
       </c>
       <c r="H1737" t="n">
         <v>2025</v>
@@ -97628,7 +97626,7 @@
         <v>2</v>
       </c>
       <c r="J1737" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1737" t="n">
         <v>0</v>
@@ -97640,7 +97638,7 @@
         <v>0</v>
       </c>
       <c r="N1737" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1737" t="n">
         <v>0</v>
@@ -97657,23 +97655,23 @@
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1738" t="n">
-        <v>6901</v>
+        <v>6891</v>
       </c>
       <c r="C1738" t="n">
-        <v>6957.7998046875</v>
+        <v>6960.60009765625</v>
       </c>
       <c r="D1738" t="n">
-        <v>6384.5</v>
+        <v>6732.64990234375</v>
       </c>
       <c r="E1738" t="n">
-        <v>6433.10009765625</v>
+        <v>6928.89990234375</v>
       </c>
       <c r="F1738" t="inlineStr"/>
       <c r="G1738" t="n">
-        <v>517009</v>
+        <v>280946</v>
       </c>
       <c r="H1738" t="n">
         <v>2025</v>
@@ -97682,7 +97680,7 @@
         <v>2</v>
       </c>
       <c r="J1738" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1738" t="n">
         <v>0</v>
@@ -97711,23 +97709,23 @@
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1739" t="n">
-        <v>6426</v>
+        <v>6901</v>
       </c>
       <c r="C1739" t="n">
-        <v>6430</v>
+        <v>6957.7998046875</v>
       </c>
       <c r="D1739" t="n">
-        <v>5934.0498046875</v>
+        <v>6384.5</v>
       </c>
       <c r="E1739" t="n">
-        <v>5982.39990234375</v>
+        <v>6433.10009765625</v>
       </c>
       <c r="F1739" t="inlineStr"/>
       <c r="G1739" t="n">
-        <v>921811</v>
+        <v>517009</v>
       </c>
       <c r="H1739" t="n">
         <v>2025</v>
@@ -97736,7 +97734,7 @@
         <v>2</v>
       </c>
       <c r="J1739" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1739" t="n">
         <v>0</v>
@@ -97765,23 +97763,23 @@
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1740" t="n">
-        <v>5950</v>
+        <v>6426</v>
       </c>
       <c r="C1740" t="n">
-        <v>6247.89990234375</v>
+        <v>6430</v>
       </c>
       <c r="D1740" t="n">
-        <v>5875.0498046875</v>
+        <v>5934.0498046875</v>
       </c>
       <c r="E1740" t="n">
-        <v>6143.7001953125</v>
+        <v>5982.39990234375</v>
       </c>
       <c r="F1740" t="inlineStr"/>
       <c r="G1740" t="n">
-        <v>746807</v>
+        <v>921811</v>
       </c>
       <c r="H1740" t="n">
         <v>2025</v>
@@ -97790,7 +97788,7 @@
         <v>2</v>
       </c>
       <c r="J1740" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1740" t="n">
         <v>0</v>
@@ -97819,23 +97817,23 @@
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1741" t="n">
-        <v>6140</v>
+        <v>5950</v>
       </c>
       <c r="C1741" t="n">
-        <v>6212.25</v>
+        <v>6247.89990234375</v>
       </c>
       <c r="D1741" t="n">
-        <v>5762.35009765625</v>
+        <v>5875.0498046875</v>
       </c>
       <c r="E1741" t="n">
-        <v>5817.2998046875</v>
+        <v>6143.7001953125</v>
       </c>
       <c r="F1741" t="inlineStr"/>
       <c r="G1741" t="n">
-        <v>542277</v>
+        <v>746807</v>
       </c>
       <c r="H1741" t="n">
         <v>2025</v>
@@ -97844,7 +97842,7 @@
         <v>2</v>
       </c>
       <c r="J1741" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1741" t="n">
         <v>0</v>
@@ -97873,23 +97871,23 @@
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1742" t="n">
-        <v>5798</v>
+        <v>6140</v>
       </c>
       <c r="C1742" t="n">
-        <v>5924.0498046875</v>
+        <v>6212.25</v>
       </c>
       <c r="D1742" t="n">
-        <v>5630.0498046875</v>
+        <v>5762.35009765625</v>
       </c>
       <c r="E1742" t="n">
-        <v>5779.85009765625</v>
+        <v>5817.2998046875</v>
       </c>
       <c r="F1742" t="inlineStr"/>
       <c r="G1742" t="n">
-        <v>905638</v>
+        <v>542277</v>
       </c>
       <c r="H1742" t="n">
         <v>2025</v>
@@ -97898,7 +97896,7 @@
         <v>2</v>
       </c>
       <c r="J1742" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1742" t="n">
         <v>0</v>
@@ -97910,7 +97908,7 @@
         <v>0</v>
       </c>
       <c r="N1742" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1742" t="n">
         <v>0</v>
@@ -97921,27 +97919,29 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1743" t="n">
-        <v>5795</v>
+        <v>5798</v>
       </c>
       <c r="C1743" t="n">
-        <v>5844.39990234375</v>
+        <v>5924.0498046875</v>
       </c>
       <c r="D1743" t="n">
-        <v>5235</v>
+        <v>5630.0498046875</v>
       </c>
       <c r="E1743" t="n">
-        <v>5514.25</v>
+        <v>5779.85009765625</v>
       </c>
       <c r="F1743" t="inlineStr"/>
       <c r="G1743" t="n">
-        <v>1257883</v>
+        <v>905638</v>
       </c>
       <c r="H1743" t="n">
         <v>2025</v>
@@ -97950,7 +97950,7 @@
         <v>2</v>
       </c>
       <c r="J1743" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1743" t="n">
         <v>0</v>
@@ -97973,27 +97973,29 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1744" t="n">
-        <v>5450</v>
+        <v>5795</v>
       </c>
       <c r="C1744" t="n">
-        <v>5633.75</v>
+        <v>5844.39990234375</v>
       </c>
       <c r="D1744" t="n">
-        <v>5351</v>
+        <v>5235</v>
       </c>
       <c r="E1744" t="n">
-        <v>5517.89990234375</v>
+        <v>5514.25</v>
       </c>
       <c r="F1744" t="inlineStr"/>
       <c r="G1744" t="n">
-        <v>690606</v>
+        <v>1257883</v>
       </c>
       <c r="H1744" t="n">
         <v>2025</v>
@@ -98002,7 +98004,7 @@
         <v>2</v>
       </c>
       <c r="J1744" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1744" t="n">
         <v>0</v>
@@ -98017,7 +98019,7 @@
         <v>8</v>
       </c>
       <c r="O1744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1744" t="n">
         <v>0</v>
@@ -98025,27 +98027,29 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1745" t="n">
-        <v>5537.39990234375</v>
+        <v>5450</v>
       </c>
       <c r="C1745" t="n">
-        <v>5870</v>
+        <v>5633.75</v>
       </c>
       <c r="D1745" t="n">
-        <v>5433.0498046875</v>
+        <v>5351</v>
       </c>
       <c r="E1745" t="n">
-        <v>5837</v>
+        <v>5517.89990234375</v>
       </c>
       <c r="F1745" t="inlineStr"/>
       <c r="G1745" t="n">
-        <v>817813</v>
+        <v>690606</v>
       </c>
       <c r="H1745" t="n">
         <v>2025</v>
@@ -98054,7 +98058,7 @@
         <v>2</v>
       </c>
       <c r="J1745" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1745" t="n">
         <v>0</v>
@@ -98077,27 +98081,29 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1746" t="n">
-        <v>5801</v>
+        <v>5537.39990234375</v>
       </c>
       <c r="C1746" t="n">
-        <v>6119.9501953125</v>
+        <v>5870</v>
       </c>
       <c r="D1746" t="n">
-        <v>5740.2001953125</v>
+        <v>5433.0498046875</v>
       </c>
       <c r="E1746" t="n">
-        <v>6001.2001953125</v>
+        <v>5837</v>
       </c>
       <c r="F1746" t="inlineStr"/>
       <c r="G1746" t="n">
-        <v>1157557</v>
+        <v>817813</v>
       </c>
       <c r="H1746" t="n">
         <v>2025</v>
@@ -98106,7 +98112,7 @@
         <v>2</v>
       </c>
       <c r="J1746" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1746" t="n">
         <v>0</v>
@@ -98129,7 +98135,531 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>5801</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>6119.9501953125</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>5740.2001953125</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>6001.2001953125</v>
+      </c>
+      <c r="F1747" t="inlineStr"/>
+      <c r="G1747" t="n">
+        <v>1157557</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>5905.0498046875</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>6054.64990234375</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>5745.60009765625</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>6026.85009765625</v>
+      </c>
+      <c r="F1748" t="inlineStr"/>
+      <c r="G1748" t="n">
+        <v>534229</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>6026.85009765625</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>6178</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>5912.0498046875</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>6024.2998046875</v>
+      </c>
+      <c r="F1749" t="inlineStr"/>
+      <c r="G1749" t="n">
+        <v>563985</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>6030</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>6150</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>5949.5498046875</v>
+      </c>
+      <c r="F1750" t="inlineStr"/>
+      <c r="G1750" t="n">
+        <v>657030</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>5871</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>5968.9501953125</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>5587</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>5628.64990234375</v>
+      </c>
+      <c r="F1751" t="inlineStr"/>
+      <c r="G1751" t="n">
+        <v>510928</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>5630</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>5810</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>5481.39990234375</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>5657</v>
+      </c>
+      <c r="F1752" t="inlineStr"/>
+      <c r="G1752" t="n">
+        <v>769944</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>5535.0498046875</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>5823.60009765625</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>5535.0498046875</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>5761.60009765625</v>
+      </c>
+      <c r="F1753" t="inlineStr"/>
+      <c r="G1753" t="n">
+        <v>540225</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>5805</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>5843.7001953125</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>5704.0498046875</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>5812.0498046875</v>
+      </c>
+      <c r="F1754" t="inlineStr"/>
+      <c r="G1754" t="n">
+        <v>392501</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>5871</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>6350</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>5862.0498046875</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>6174.89990234375</v>
+      </c>
+      <c r="F1755" t="inlineStr"/>
+      <c r="G1755" t="n">
+        <v>1433956</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>6418</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>6339.14990234375</v>
+      </c>
+      <c r="F1756" t="inlineStr"/>
+      <c r="G1756" t="n">
+        <v>1033335</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1756"/>
+  <dimension ref="A1:R1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6963,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116" t="n">
         <v>1</v>
@@ -97381,7 +97381,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -98243,7 +98245,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98295,7 +98299,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98347,7 +98353,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98399,7 +98407,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98451,7 +98461,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98503,7 +98515,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98555,7 +98569,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98607,7 +98623,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98659,7 +98677,477 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>6340.0498046875</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>6649.89990234375</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>6310.0498046875</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>6431.35009765625</v>
+      </c>
+      <c r="F1757" t="inlineStr"/>
+      <c r="G1757" t="n">
+        <v>1069120</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>6277.0498046875</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>6458</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>6160.10009765625</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>6414.2001953125</v>
+      </c>
+      <c r="F1758" t="inlineStr"/>
+      <c r="G1758" t="n">
+        <v>658070</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>6455</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>6539</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>6340.5498046875</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>6522.39990234375</v>
+      </c>
+      <c r="F1759" t="inlineStr"/>
+      <c r="G1759" t="n">
+        <v>479846</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>6516.9501953125</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>6310.10009765625</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>6365.5</v>
+      </c>
+      <c r="F1760" t="inlineStr"/>
+      <c r="G1760" t="n">
+        <v>460862</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>6396.89990234375</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>6655</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>6347.5498046875</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>6489.7001953125</v>
+      </c>
+      <c r="F1761" t="inlineStr"/>
+      <c r="G1761" t="n">
+        <v>586550</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>6489.7001953125</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>6489.7001953125</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>6489.7001953125</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>6489.7001953125</v>
+      </c>
+      <c r="F1762" t="inlineStr"/>
+      <c r="G1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>6609.25</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>6609.2001953125</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>6861.89990234375</v>
+      </c>
+      <c r="F1763" t="inlineStr"/>
+      <c r="G1763" t="n">
+        <v>489592</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>6900</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>7347.39990234375</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>6896.14990234375</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>7248.5</v>
+      </c>
+      <c r="F1764" t="inlineStr"/>
+      <c r="G1764" t="n">
+        <v>1540246</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>7260</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>7261.25</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>6840</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>6890.5498046875</v>
+      </c>
+      <c r="F1765" t="inlineStr"/>
+      <c r="G1765" t="n">
+        <v>782881</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1765"/>
+  <dimension ref="A1:R1774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98731,7 +98731,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98783,7 +98785,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98835,7 +98839,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -98887,7 +98893,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -98939,7 +98947,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -98991,7 +99001,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99043,7 +99055,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99087,7 +99101,7 @@
         <v>12</v>
       </c>
       <c r="O1764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1764" t="n">
         <v>0</v>
@@ -99095,7 +99109,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99147,7 +99163,477 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>6980.10009765625</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>7085</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>6896.9501953125</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>7001.75</v>
+      </c>
+      <c r="F1766" t="inlineStr"/>
+      <c r="G1766" t="n">
+        <v>452595</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>7070.4501953125</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>7139.7998046875</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>6839.7998046875</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>6884.89990234375</v>
+      </c>
+      <c r="F1767" t="inlineStr"/>
+      <c r="G1767" t="n">
+        <v>352793</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>6900</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>6992.4501953125</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>6741.85009765625</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>6857.14990234375</v>
+      </c>
+      <c r="F1768" t="inlineStr"/>
+      <c r="G1768" t="n">
+        <v>295298</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>6827.2001953125</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>7204.9501953125</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>6728.2998046875</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>7131.2998046875</v>
+      </c>
+      <c r="F1769" t="inlineStr"/>
+      <c r="G1769" t="n">
+        <v>564817</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>7181</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>7299</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>7180</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>7210.85009765625</v>
+      </c>
+      <c r="F1770" t="inlineStr"/>
+      <c r="G1770" t="n">
+        <v>511573</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>7180</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>7219</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>6848.2001953125</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>6879.5498046875</v>
+      </c>
+      <c r="F1771" t="inlineStr"/>
+      <c r="G1771" t="n">
+        <v>376900</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>6900</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>7009</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>6801.35009765625</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>6996.0498046875</v>
+      </c>
+      <c r="F1772" t="inlineStr"/>
+      <c r="G1772" t="n">
+        <v>312615</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>6940</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>7058</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>6878.7998046875</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>6929.89990234375</v>
+      </c>
+      <c r="F1773" t="inlineStr"/>
+      <c r="G1773" t="n">
+        <v>237625</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>6915</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>6973.2001953125</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>6518.25</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>6595.14990234375</v>
+      </c>
+      <c r="F1774" t="inlineStr"/>
+      <c r="G1774" t="n">
+        <v>307237</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1774"/>
+  <dimension ref="A1:R1778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99217,7 +99217,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99269,7 +99271,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99321,7 +99325,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99373,7 +99379,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99425,7 +99433,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99477,7 +99487,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99529,7 +99541,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99581,7 +99595,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99633,7 +99649,217 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>5700.5</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>6294.4501953125</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>5675.25</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>6151.39990234375</v>
+      </c>
+      <c r="F1775" t="inlineStr"/>
+      <c r="G1775" t="n">
+        <v>387620</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>6450</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>6523</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>6306.2998046875</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>6458.0498046875</v>
+      </c>
+      <c r="F1776" t="inlineStr"/>
+      <c r="G1776" t="n">
+        <v>400725</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>6416</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>6417.5</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>6088</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>6159.39990234375</v>
+      </c>
+      <c r="F1777" t="inlineStr"/>
+      <c r="G1777" t="n">
+        <v>390920</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>6340</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>6587</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>6250</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>6530.0498046875</v>
+      </c>
+      <c r="F1778" t="inlineStr"/>
+      <c r="G1778" t="n">
+        <v>609495</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1778"/>
+  <dimension ref="A1:R1781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99703,7 +99703,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99755,7 +99757,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99807,7 +99811,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -99859,7 +99865,165 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>6790</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>6930</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>6735.5</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>6880</v>
+      </c>
+      <c r="F1779" t="inlineStr"/>
+      <c r="G1779" t="n">
+        <v>397603</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>6870</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>6870</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>6721</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>6744.5</v>
+      </c>
+      <c r="F1780" t="inlineStr"/>
+      <c r="G1780" t="n">
+        <v>284043</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>6790</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>6974</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>6643.5</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>6686</v>
+      </c>
+      <c r="F1781" t="inlineStr"/>
+      <c r="G1781" t="n">
+        <v>633384</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1781"/>
+  <dimension ref="A1:R1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
@@ -99695,7 +99695,7 @@
         <v>15</v>
       </c>
       <c r="O1775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1775" t="n">
         <v>2</v>
@@ -99919,7 +99919,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -99971,7 +99973,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100023,7 +100027,477 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>6799</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>6824</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>6711.5</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>6751</v>
+      </c>
+      <c r="F1782" t="inlineStr"/>
+      <c r="G1782" t="n">
+        <v>250408</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>6819</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>6819</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>6635</v>
+      </c>
+      <c r="F1783" t="inlineStr"/>
+      <c r="G1783" t="n">
+        <v>391558</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>6700</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>6770</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>6525</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>6606</v>
+      </c>
+      <c r="F1784" t="inlineStr"/>
+      <c r="G1784" t="n">
+        <v>311464</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>6644</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>6644</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>6358</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>6388</v>
+      </c>
+      <c r="F1785" t="inlineStr"/>
+      <c r="G1785" t="n">
+        <v>333424</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>6436</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>6470</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>6250.5</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>6394</v>
+      </c>
+      <c r="F1786" t="inlineStr"/>
+      <c r="G1786" t="n">
+        <v>339260</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>6388</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>6469</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>6233.5</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>6381</v>
+      </c>
+      <c r="F1787" t="inlineStr"/>
+      <c r="G1787" t="n">
+        <v>230556</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>6380.5</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>6489.5</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>6290</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>6315.5</v>
+      </c>
+      <c r="F1788" t="inlineStr"/>
+      <c r="G1788" t="n">
+        <v>232237</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>6315</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>6330</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>6055</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>6155.5</v>
+      </c>
+      <c r="F1789" t="inlineStr"/>
+      <c r="G1789" t="n">
+        <v>326788</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>6150</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>6255.5</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>6068</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>6188.5</v>
+      </c>
+      <c r="F1790" t="inlineStr"/>
+      <c r="G1790" t="n">
+        <v>247844</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/AMBER.NS.xlsx
+++ b/stock_historical_data/1d/AMBER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1790"/>
+  <dimension ref="A1:R1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100081,7 +100081,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100133,7 +100135,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100185,7 +100189,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100237,7 +100243,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100289,7 +100297,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100341,7 +100351,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100393,7 +100405,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100445,7 +100459,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100497,7 +100513,529 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>6219.5</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>6234.5</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>6070.5</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>6097.5</v>
+      </c>
+      <c r="F1791" t="inlineStr"/>
+      <c r="G1791" t="n">
+        <v>187760</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>6137.5</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>5820</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>5856.5</v>
+      </c>
+      <c r="F1792" t="inlineStr"/>
+      <c r="G1792" t="n">
+        <v>250711</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>5819.5</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>6094.5</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>5776.5</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>5982.5</v>
+      </c>
+      <c r="F1793" t="inlineStr"/>
+      <c r="G1793" t="n">
+        <v>483763</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>6042.5</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>6419.5</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>5980</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>6032.5</v>
+      </c>
+      <c r="F1794" t="inlineStr"/>
+      <c r="G1794" t="n">
+        <v>904514</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>5970</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>5773</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>5795</v>
+      </c>
+      <c r="F1795" t="inlineStr"/>
+      <c r="G1795" t="n">
+        <v>336722</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>6140</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>6267.5</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>6034.5</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>6237</v>
+      </c>
+      <c r="F1796" t="inlineStr"/>
+      <c r="G1796" t="n">
+        <v>361950</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>6237</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>6320</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>6214.5</v>
+      </c>
+      <c r="F1797" t="inlineStr"/>
+      <c r="G1797" t="n">
+        <v>236778</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>6240</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>6328.5</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>6148.5</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>6301.5</v>
+      </c>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="n">
+        <v>215793</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>6330</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>6375</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>6293.5</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>6346.5</v>
+      </c>
+      <c r="F1799" t="inlineStr"/>
+      <c r="G1799" t="n">
+        <v>149921</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>6375</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>6520</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>6301</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>6403.5</v>
+      </c>
+      <c r="F1800" t="inlineStr"/>
+      <c r="G1800" t="n">
+        <v>339906</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
